--- a/命名規則.xlsx
+++ b/命名規則.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>i.e.</t>
     <phoneticPr fontId="2"/>
@@ -201,6 +201,16 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>structの変数はローカルと同じ</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -555,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -638,8 +648,8 @@
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" t="s">
-        <v>0</v>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="M7" t="s">
         <v>30</v>
@@ -650,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M8" t="s">
         <v>31</v>
@@ -661,7 +671,7 @@
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
@@ -669,7 +679,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="G10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
@@ -680,7 +690,7 @@
         <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>32</v>
@@ -692,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
         <v>33</v>
@@ -703,7 +713,7 @@
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
         <v>34</v>
@@ -714,34 +724,37 @@
         <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="F16" s="2" t="s">
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G17" t="s">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="G18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G18" t="s">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G19" t="s">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="G20" t="s">
         <v>20</v>
       </c>
     </row>
